--- a/docs/5u24/doc/_downloads/nablarch5u20-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u20-releasenote.xlsx
@@ -1,56 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A4A552-EA09-4F5A-9DE1-91257A4D9065}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE6718-1E6E-4769-A605-3BEED023F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u20" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
+    <sheet name="5u20" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u20'!$A$5:$N$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u20'!$A$1:$N$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u20'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$A$1:$N$18</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$A$1:$M$18</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$C$6:$M$18</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$A$1:$N$18</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$E$1:$E$18</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$E$1:$E$18</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$A$1:$N$18</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$E$1:$E$18</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$E$1:$E$18</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$A$1:$N$18</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u20'!$C$6:$M$18</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u20'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u20'!$A$6:$N$18</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u20'!$A$1:$N$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u20'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,25 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="167">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -94,237 +41,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リリース
@@ -332,14 +63,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -349,7 +80,7 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
@@ -362,11 +93,11 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch開発標準</t>
@@ -376,7 +107,7 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Example</t>
@@ -384,15 +115,15 @@
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -403,7 +134,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムへの
@@ -415,7 +146,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -431,14 +162,14 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アダプタ</t>
@@ -446,52 +177,52 @@
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>設計書フォーマット＆サンプル</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>開発プロセス支援ツール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■Nablarch 5u20 リリースノート</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u19からの変更点を記載しています。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u20に書き換える</t>
@@ -504,7 +235,7 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">リクエストハンドラエントリ
@@ -515,11 +246,11 @@
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-core 1.5.2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u18でリクエストハンドラエントリに埋め込まれたリクエストパターンの判定処理の不具合を修正</t>
@@ -541,7 +272,7 @@
     <rPh sb="44" eb="46">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リクエストハンドラエントリのリクエストパターンの判定処理の不具合を修正</t>
@@ -557,31 +288,31 @@
     <rPh sb="33" eb="35">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1.5.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u18</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u20/doc/application_framework/application_framework/handlers/common/request_handler_entry.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-412</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -707,7 +438,7 @@
     <rPh sb="443" eb="444">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リクエストハンドラエントリは「ウェブアプリケーションで特定のURLのみハンドラの処理を行う」といった機能をハンドラを修正せずに実現するために提供しています。
@@ -822,21 +553,21 @@
     <rPh sb="509" eb="511">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コンテナ化</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コンテナ用ブランクプロジェクトを追加</t>
@@ -846,18 +577,18 @@
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>なし</t>
   </si>
   <si>
     <t>NAB-417</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u20/doc/application_framework/application_framework/blank_project/setup_containerBlankProject/setup_ContainerBatch.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>JSR352に準拠したバッチプロジェクト</t>
@@ -867,35 +598,35 @@
   </si>
   <si>
     <t>NAB-416</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-414</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>設計書</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>外部インタフェース設計書</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>フォーマット定義ファイル自動生成ツール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>設計書フォーマットの変更にあわせるための修正</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-410</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">コンテナイメージとして使用できるNablarchアプリケーションを簡単に作り始められるように、Dockerコンテナ化のためあらかじめ調整したブランクプロジェクトを追加しました。
@@ -982,19 +713,19 @@
     <rPh sb="389" eb="391">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-development-standards 2.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-development-standards-tools 1.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-testing 1.3.2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>同期応答メッセージ送信処理を伴う取引単体テストの実施方法で使用する応答電文のExcelファイルが再読み込みされない不具合に対応</t>
@@ -1004,15 +735,15 @@
     <rPh sb="61" eb="63">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u20/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.html#id17</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>logアダプタ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>SLF4Jのlogアダプタを使用した場合、SLF4JにはFATALレベルがないため、ERRORレベルで出力されることを追記しました。</t>
@@ -1028,53 +759,53 @@
     <rPh sb="59" eb="61">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>SLF4JではFATALレベルがERRORレベルにマッピングされることを追記</t>
     <rPh sb="36" eb="38">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u20/doc/application_framework/adaptors/log_adaptor.html#id2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-422</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>JIRA issue
 (※4)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-container-web-archetype 5u20
 nablarch-container-jaxrs-archetype 5u20
 nablarch-container-batch-archetype 5u20
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-batch-ee 5u20</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-424</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コンポーネント設定ファイル</t>
     <rPh sb="7" eb="9">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コンポーネント設定ファイル</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-batch 5u20
@@ -1086,14 +817,14 @@
 nablarch-example-rest 5u20
 nablarch-example-thymeleaf-web 5u20
 nablarch-example-web 5u20</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ハンドラキューの最適化</t>
     <rPh sb="8" eb="11">
       <t>サイテキカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アーキタイプ、Exampleでハンドラキューの順序が統一されていなかったため以下の3つのハンドラについて、すべてのアーキタイプ、Exampleのハンドラキューの順序を統一しました。
@@ -1115,7 +846,7 @@
     <rPh sb="83" eb="85">
       <t>トウイツ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-web-archetype 5u20
@@ -1124,7 +855,7 @@
 nablarch-container-web-archetype 5u20
 nablarch-container-jaxrs-archetype 5u20
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">JSR352に準拠したバッチプロジェクトが依存するモジュールのGuavaに脆弱性が検知されたため、脆弱性対応済みのバージョンに変更しました。
@@ -1159,19 +890,19 @@
     <rPh sb="215" eb="217">
       <t>シヨウコベツガイトウシヨウゼイジャクセイエイキョウキソン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Logbackのバージョンアップ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-415</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-batch-ee-archetype 5u20</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>同期応答メッセージ送信処理を伴う取引単体テストを実施するためモックアップクラスを提供しています。このクラスではテスト用のExcelファイルのタイムスタンプが更新された場合、再読み込みしますが、この機能に再読み込みされない不具合があったため対応しました。</t>
@@ -1229,7 +960,7 @@
     <rPh sb="119" eb="121">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更内容はNo.5と同じになります。</t>
@@ -1242,14 +973,14 @@
     <rPh sb="10" eb="11">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>あり(開発)</t>
     <rPh sb="3" eb="5">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リクエストハンドラエントリを使用して概要欄の①～②に該当するパターンを指定しているアプリケーションに影響があります。
@@ -1334,7 +1065,7 @@
     <rPh sb="427" eb="429">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u18, 5u19 を採用しており、かつリクエストハンドラエントリで概要欄で説明しているパターンを指定しているアプリケーションに影響があります。
@@ -1357,7 +1088,7 @@
     <rPh sb="65" eb="67">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">設計ドキュメントとして提供しているJSON, XML用の外部インターフェース設計書フォーマットとサンプルを以下のように改善しました。
@@ -1367,11 +1098,11 @@
     <rPh sb="188" eb="190">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1.2.3</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更内容はNo.4と同じになります。</t>
@@ -1384,7 +1115,7 @@
     <rPh sb="10" eb="11">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更内容はNo.6と同じになります。</t>
@@ -1397,18 +1128,18 @@
     <rPh sb="10" eb="11">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.12で変更したフォーマットに合致するようツールを修正しました。</t>
     <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新しい設計書フォーマットをつかってフォーマット定義ファイルを自動生成する場合はNo.13のフォーマット変更に対応したバージョンのツールをご利用ください。過去バージョンのツールではフォーマット定義ファイルが生成できません。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">JSR352に準拠したバッチプロジェクトが依存するモジュールのLogbackに脆弱性が検知されたため、脆弱性対応済みのバージョンに変更しました。
@@ -1416,35 +1147,19 @@
 https://github.com/advisories/GHSA-vmfg-rjjm-rjrj
 なお、Nablarchでは脆弱性が検知された機能を使用していないため、プロジェクトで個別に該当機能を使用していなければ、既存プロジェクトに脆弱性の影響はありません。
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1804,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1816,7 +1531,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1904,247 +1619,238 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -3089,369 +2795,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -3460,15 +2803,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="31" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="31" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -3481,792 +2824,792 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="30"/>
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:125" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:125" s="9" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="AO3" s="10"/>
-      <c r="DU3" s="11"/>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>141</v>
+      <c r="A4" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="71"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:125" s="12" customFormat="1" ht="336" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="336" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="38"/>
+      <c r="M7" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:125" s="12" customFormat="1" ht="228" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="25">
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="228" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22">
         <f t="shared" ref="C8:C12" si="0">C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" s="38"/>
+      <c r="D8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:125" s="12" customFormat="1" ht="228" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="25">
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="228" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="25" t="s">
+      <c r="D9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="O9" s="38"/>
+      <c r="I9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:125" s="12" customFormat="1" ht="144" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="25">
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="38"/>
+      <c r="D10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:125" s="12" customFormat="1" ht="132" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="25">
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="O11" s="38"/>
+      <c r="D11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="25">
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="O12" s="38"/>
+      <c r="D12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="38"/>
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="25">
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22">
         <f>C12+1</f>
         <v>7</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" s="38"/>
+      <c r="D14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:125" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="38"/>
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:125" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="25">
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="22">
         <f>C14+1</f>
         <v>8</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="38"/>
+      <c r="D16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="25">
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="22">
         <f>C16+1</f>
         <v>9</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="O17" s="38"/>
+      <c r="D17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="168" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="25">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="168" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="22">
         <f>C17+1</f>
         <v>10</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="O18" s="38"/>
+      <c r="D18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="38"/>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="25">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22">
         <f>C18+1</f>
         <v>11</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="N20" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="O20" s="38"/>
+      <c r="D20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="38"/>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:15" ht="108" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="22">
         <f>C20+1</f>
         <v>12</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>123</v>
+      <c r="D22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="22">
         <f>C22+1</f>
         <v>13</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>123</v>
+      <c r="D23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
@@ -4275,7 +3618,7 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="60"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
@@ -4290,11 +3633,6 @@
     <sortCondition ref="E7:E8"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="G4:G5"/>
@@ -4302,8 +3640,13 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="G21">
     <cfRule type="expression" dxfId="8" priority="22">
       <formula>#REF!="完了"</formula>
@@ -4367,9 +3710,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -4378,97 +3721,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
+      <c r="A1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
